--- a/correlation/porsche/minutely/correlation/porsche_correlation_volume_with_semantics.xlsx
+++ b/correlation/porsche/minutely/correlation/porsche_correlation_volume_with_semantics.xlsx
@@ -429,16 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.00295585996686776</v>
+        <v>0.0002487374184026151</v>
       </c>
       <c r="D2">
-        <v>-0.00295585996687544</v>
+        <v>-0.0055333117443499</v>
+      </c>
+      <c r="E2">
+        <v>0.001094887065901024</v>
       </c>
       <c r="F2">
-        <v>0.002955859966872917</v>
+        <v>0.0006269321871023348</v>
+      </c>
+      <c r="G2">
+        <v>0.002175169408260414</v>
       </c>
       <c r="H2">
-        <v>-0.002955859966888033</v>
+        <v>0.004128665554323326</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -446,19 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.00295585996686776</v>
+        <v>0.0002487374184026151</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.000000000003425</v>
+        <v>0.3823842511601606</v>
+      </c>
+      <c r="E3">
+        <v>0.01007175589547642</v>
       </c>
       <c r="F3">
-        <v>-0.9999999999995955</v>
+        <v>0.1539904111172744</v>
+      </c>
+      <c r="G3">
+        <v>0.3725572431032791</v>
       </c>
       <c r="H3">
-        <v>0.9999999999984275</v>
+        <v>0.1302512567553219</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -466,66 +478,126 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.00295585996687544</v>
+        <v>-0.0055333117443499</v>
       </c>
       <c r="C4">
-        <v>1.000000000003425</v>
+        <v>0.3823842511601606</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>-0.37077942439978</v>
+      </c>
       <c r="F4">
-        <v>-1.000000000002736</v>
+        <v>-0.08458342752599494</v>
+      </c>
+      <c r="G4">
+        <v>-0.2197482560481097</v>
       </c>
       <c r="H4">
-        <v>0.9999999999998304</v>
+        <v>-0.3062569802777124</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.001094887065901024</v>
+      </c>
+      <c r="C5">
+        <v>0.01007175589547642</v>
+      </c>
+      <c r="D5">
+        <v>-0.37077942439978</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3303717377029893</v>
+      </c>
+      <c r="G5">
+        <v>0.7274039183479057</v>
+      </c>
+      <c r="H5">
+        <v>-0.4255220006984534</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.002955859966872917</v>
+        <v>0.0006269321871023348</v>
       </c>
       <c r="C6">
-        <v>-0.9999999999995955</v>
+        <v>0.1539904111172744</v>
       </c>
       <c r="D6">
-        <v>-1.000000000002736</v>
+        <v>-0.08458342752599494</v>
+      </c>
+      <c r="E6">
+        <v>0.3303717377029893</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>-0.07959455251909391</v>
+      </c>
       <c r="H6">
-        <v>-0.9999999999938985</v>
+        <v>-0.3490867624695535</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.002175169408260414</v>
+      </c>
+      <c r="C7">
+        <v>0.3725572431032791</v>
+      </c>
+      <c r="D7">
+        <v>-0.2197482560481097</v>
+      </c>
+      <c r="E7">
+        <v>0.7274039183479057</v>
+      </c>
+      <c r="F7">
+        <v>-0.07959455251909391</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>-0.1203583788146481</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.002955859966888033</v>
+        <v>0.004128665554323326</v>
       </c>
       <c r="C8">
-        <v>0.9999999999984275</v>
+        <v>0.1302512567553219</v>
       </c>
       <c r="D8">
-        <v>0.9999999999998304</v>
+        <v>-0.3062569802777124</v>
+      </c>
+      <c r="E8">
+        <v>-0.4255220006984534</v>
       </c>
       <c r="F8">
-        <v>-0.9999999999938985</v>
+        <v>-0.3490867624695535</v>
+      </c>
+      <c r="G8">
+        <v>-0.1203583788146481</v>
       </c>
       <c r="H8">
         <v>1</v>
